--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed4/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.756</v>
+        <v>5.355</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.878</v>
+        <v>-21.743</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.281999999999999</v>
+        <v>-7.726999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.13</v>
+        <v>-13.247</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.692</v>
+        <v>-8.543000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.986</v>
+        <v>-22.051</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.082</v>
+        <v>-20.793</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.346000000000001</v>
+        <v>-7.558</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.182</v>
+        <v>-7.547</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.786</v>
+        <v>5.505</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.356</v>
+        <v>-21.4</v>
       </c>
       <c r="B27" t="n">
-        <v>6.231999999999999</v>
+        <v>5.770999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.601999999999999</v>
+        <v>5.669</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.670999999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.65</v>
+        <v>5.038</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.408</v>
+        <v>-12.566</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.651999999999999</v>
+        <v>-7.507</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.106</v>
+        <v>-12.248</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.209999999999999</v>
+        <v>-7.366000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.369999999999999</v>
+        <v>5.790999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.75</v>
+        <v>-11.915</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.55</v>
+        <v>-7.811</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.924</v>
+        <v>5.867</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.968000000000001</v>
+        <v>-7.825</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.688</v>
+        <v>-13.613</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.89</v>
+        <v>-12.488</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.772</v>
+        <v>-21.375</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>6.165000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.69</v>
+        <v>5.606</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.918</v>
+        <v>-11.206</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.922</v>
+        <v>-20.718</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.86</v>
+        <v>-22.101</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.244</v>
+        <v>6.248</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.498000000000001</v>
+        <v>-8.164</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.838</v>
+        <v>-12.474</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.310999999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.831</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.088000000000001</v>
+        <v>7.398999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
